--- a/Week 6 Homework/NatePatten_Homework.xlsx
+++ b/Week 6 Homework/NatePatten_Homework.xlsx
@@ -8,38 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natepatten/code/savvycoders/Homework/Week 6 Homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3BAA4E-DB00-004F-8EC7-9BF08F4FF4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954E2E5A-27FA-A247-9103-D280B4B31E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14060" yWindow="760" windowWidth="20500" windowHeight="19940" activeTab="2" xr2:uid="{847781AB-7E97-3C49-8D37-40DFF7958F9F}"/>
+    <workbookView xWindow="360" yWindow="760" windowWidth="20500" windowHeight="19880" activeTab="1" xr2:uid="{847781AB-7E97-3C49-8D37-40DFF7958F9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Roster" sheetId="1" r:id="rId1"/>
     <sheet name="Credit Card Debt" sheetId="2" r:id="rId2"/>
-    <sheet name="Payroll" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Credit Card Debt'!$A$3:$A$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Credit Card Debt'!$G$2</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Credit Card Debt'!$G$2</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Credit Card Debt'!$G$3:$G$7</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Credit Card Debt'!$A$3:$A$7</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Credit Card Debt'!$G$2</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Credit Card Debt'!$G$3:$G$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Credit Card Debt'!$G$3:$G$7</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Credit Card Debt'!$A$3:$A$7</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Credit Card Debt'!$G$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Credit Card Debt'!$G$3:$G$7</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Credit Card Debt'!$A$3:$A$7</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Credit Card Debt'!$G$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Credit Card Debt'!$G$3:$G$7</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Credit Card Debt'!$A$3:$A$7</definedName>
-    <definedName name="_xlchart.v2.12" hidden="1">'Credit Card Debt'!$A$3:$A$7</definedName>
-    <definedName name="_xlchart.v2.13" hidden="1">'Credit Card Debt'!$B$2</definedName>
-    <definedName name="_xlchart.v2.14" hidden="1">'Credit Card Debt'!$B$3:$B$7</definedName>
-    <definedName name="_xlchart.v2.15" hidden="1">'Credit Card Debt'!$G$2</definedName>
-    <definedName name="_xlchart.v2.16" hidden="1">'Credit Card Debt'!$G$3:$G$7</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Students Name</t>
   </si>
@@ -110,9 +87,6 @@
     <t>Semester Grades</t>
   </si>
   <si>
-    <t>Class</t>
-  </si>
-  <si>
     <t>Social Studies</t>
   </si>
   <si>
@@ -125,12 +99,6 @@
     <t>Average Grade</t>
   </si>
   <si>
-    <t>Mode Grade</t>
-  </si>
-  <si>
-    <t>Median Grade</t>
-  </si>
-  <si>
     <t>Number of Students</t>
   </si>
   <si>
@@ -173,100 +141,10 @@
     <t>Credit Card</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>AVG</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>MAX</t>
-  </si>
-  <si>
-    <t>Milton</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>Cary</t>
-  </si>
-  <si>
-    <t>Munson</t>
-  </si>
-  <si>
-    <t>Matthew</t>
-  </si>
-  <si>
-    <t>Little</t>
-  </si>
-  <si>
-    <t>Christina</t>
-  </si>
-  <si>
-    <t>Miller</t>
-  </si>
-  <si>
-    <t>Aaron</t>
-  </si>
-  <si>
-    <t>Hail</t>
-  </si>
-  <si>
-    <t>Tammy</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>Bryan</t>
-  </si>
-  <si>
-    <t>Abbott</t>
-  </si>
-  <si>
-    <t>Bill</t>
-  </si>
-  <si>
-    <t>Hill</t>
-  </si>
-  <si>
-    <t>Phillip</t>
-  </si>
-  <si>
-    <t>Rogers</t>
-  </si>
-  <si>
-    <t>Gary</t>
-  </si>
-  <si>
-    <t>Bell</t>
-  </si>
-  <si>
-    <t>Lindsay</t>
-  </si>
-  <si>
-    <t>Walker</t>
-  </si>
-  <si>
-    <t>Pay</t>
-  </si>
-  <si>
-    <t>Hours Worked</t>
-  </si>
-  <si>
-    <t>Hourly Wage</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last  Name</t>
-  </si>
-  <si>
-    <t>Employee Payroll</t>
+    <t>Grade Mode</t>
+  </si>
+  <si>
+    <t>Grade Median</t>
   </si>
 </sst>
 </file>
@@ -276,7 +154,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -298,16 +176,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,12 +187,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +410,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -572,10 +436,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3040,10 +2900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6EC9E3-B5F5-4A4A-9E6F-4104831AE92D}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3051,16 +2911,15 @@
     <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -3070,14 +2929,11 @@
       <c r="C2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
@@ -3087,12 +2943,11 @@
       <c r="C3" s="16">
         <v>85</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="23" t="s">
-        <v>17</v>
+      <c r="D3" s="23" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -3102,12 +2957,11 @@
       <c r="C4" s="1">
         <v>72</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="21" t="s">
-        <v>17</v>
+      <c r="D4" s="21" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -3117,12 +2971,11 @@
       <c r="C5" s="1">
         <v>60</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="21" t="s">
-        <v>17</v>
+      <c r="D5" s="21" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -3132,12 +2985,11 @@
       <c r="C6" s="1">
         <v>95</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="21" t="s">
-        <v>17</v>
+      <c r="D6" s="21" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -3147,12 +2999,11 @@
       <c r="C7" s="1">
         <v>88</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="21" t="s">
-        <v>17</v>
+      <c r="D7" s="21" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -3162,12 +3013,11 @@
       <c r="C8" s="1">
         <v>99</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="21" t="s">
-        <v>17</v>
+      <c r="D8" s="21" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -3177,12 +3027,11 @@
       <c r="C9" s="1">
         <v>75</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="21" t="s">
-        <v>17</v>
+      <c r="D9" s="21" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -3192,12 +3041,11 @@
       <c r="C10" s="1">
         <v>100</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="21" t="s">
-        <v>17</v>
+      <c r="D10" s="21" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -3207,12 +3055,11 @@
       <c r="C11" s="1">
         <v>75</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="21" t="s">
-        <v>17</v>
+      <c r="D11" s="21" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -3222,12 +3069,11 @@
       <c r="C12" s="1">
         <v>85</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="21" t="s">
-        <v>17</v>
+      <c r="D12" s="21" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
@@ -3237,24 +3083,23 @@
       <c r="C13" s="11">
         <v>85</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="22" t="s">
+      <c r="D13" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="B15" s="5">
         <f>MIN(C3:C13)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="21">
         <f>MAX(C3:C13)</f>
@@ -3263,7 +3108,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="24">
         <f>AVERAGE(C3:C13)</f>
@@ -3272,7 +3117,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B18" s="21">
         <f>MODE(C3:C13)</f>
@@ -3281,7 +3126,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B19" s="21">
         <f>MEDIAN(C3:C13)</f>
@@ -3290,7 +3135,7 @@
     </row>
     <row r="20" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B20" s="22">
         <f>COUNTA(A3:A13)</f>
@@ -3306,8 +3151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F19242-0C5D-9744-A6E6-A61AB5D233C8}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3323,35 +3168,35 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="G2" s="20" t="s">
         <v>27</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" s="14">
         <v>2000</v>
@@ -3377,7 +3222,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2">
         <v>450</v>
@@ -3403,7 +3248,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2">
         <v>975</v>
@@ -3429,7 +3274,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2">
         <v>1500</v>
@@ -3455,7 +3300,7 @@
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7" s="9">
         <v>780</v>
@@ -3483,234 +3328,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D22519-2A63-8A42-BC06-EF2B8581B03A}">
-  <dimension ref="A1:I19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.1640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="25" customWidth="1"/>
-    <col min="4" max="8" width="14.6640625" style="25" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="28">
-        <v>44986</v>
-      </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="25">
-        <v>10</v>
-      </c>
-      <c r="D4" s="25">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="25">
-        <v>15</v>
-      </c>
-      <c r="D5" s="25">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="25">
-        <v>3.5</v>
-      </c>
-      <c r="D6" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="25">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="D7" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="25">
-        <v>5.75</v>
-      </c>
-      <c r="D8" s="25">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="25">
-        <v>12</v>
-      </c>
-      <c r="D9" s="25">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="25">
-        <v>6.55</v>
-      </c>
-      <c r="D10" s="25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="25">
-        <v>30</v>
-      </c>
-      <c r="D11" s="25">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="25">
-        <v>75</v>
-      </c>
-      <c r="D12" s="25">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="25">
-        <v>40</v>
-      </c>
-      <c r="D13" s="25">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="25">
-        <v>25</v>
-      </c>
-      <c r="D14" s="25">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>